--- a/data/trans_dic/P57_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Habitat-trans_dic.xlsx
@@ -612,13 +612,13 @@
         <v>0.2993807700368957</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4201774832370219</v>
+        <v>0.4201774832370218</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2638986981301515</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3999029068673773</v>
+        <v>0.3999029068673772</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2816675783611919</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2632704140548539</v>
+        <v>0.2657194756362243</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3767612124541019</v>
+        <v>0.3758391146884353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2321699897069217</v>
+        <v>0.2323145291972018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3699273688968285</v>
+        <v>0.3717079937080852</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2567782210477846</v>
+        <v>0.2579623734875316</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3852629704591137</v>
+        <v>0.3821096626686564</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3365173745784673</v>
+        <v>0.3381329541005132</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4581246139011531</v>
+        <v>0.4590817032023868</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.295637565919346</v>
+        <v>0.2979384588071021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4315192457665284</v>
+        <v>0.4355657454773062</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3071249585119099</v>
+        <v>0.3080808024271414</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4365590655240378</v>
+        <v>0.4331717705943727</v>
       </c>
     </row>
     <row r="7">
@@ -694,19 +694,19 @@
         <v>0.2937422718008447</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.4899392201377483</v>
+        <v>0.4899392201377484</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.2636429636005003</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4166958140470044</v>
+        <v>0.4166958140470043</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.2785423015935071</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.4530466342560076</v>
+        <v>0.4530466342560075</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2675378642074944</v>
+        <v>0.2637562116889592</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4542154010655266</v>
+        <v>0.45439236472523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2364845987278509</v>
+        <v>0.2370887534366625</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3919717791808568</v>
+        <v>0.3903827545293713</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2593168310386178</v>
+        <v>0.2573277826005895</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4300784110794468</v>
+        <v>0.4295257499288105</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3221084412903275</v>
+        <v>0.3221379891233099</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5269854634538661</v>
+        <v>0.5261385672282821</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2933084321818077</v>
+        <v>0.2932046980859132</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4434791235855937</v>
+        <v>0.4458780577745595</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3001010834754713</v>
+        <v>0.2988824582877165</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4747679701620433</v>
+        <v>0.4763901294590834</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2683432356505769</v>
+        <v>0.2696834937129663</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.49699819677116</v>
+        <v>0.4912053339804531</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2246589253897001</v>
+        <v>0.2227260081478556</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4595920811877132</v>
+        <v>0.4557151928816801</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.254334763743217</v>
+        <v>0.2555665766387615</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4864829237508139</v>
+        <v>0.4871042775167551</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3390961614471076</v>
+        <v>0.3370837034829954</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5758454510078534</v>
+        <v>0.5740234844357047</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2906051805711803</v>
+        <v>0.285425640682756</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5257914676970052</v>
+        <v>0.522945164695274</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3002577843254781</v>
+        <v>0.3002684973294952</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5386699052023578</v>
+        <v>0.5406699584224937</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.3191094556665943</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.4093915130239134</v>
+        <v>0.4093915130239132</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2690715783527832</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2891208941574799</v>
+        <v>0.2916366004484695</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.378077418441601</v>
+        <v>0.3752661325630257</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2418358860306207</v>
+        <v>0.238327754501499</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3339339266848746</v>
+        <v>0.33538686420064</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2721123541024919</v>
+        <v>0.2728497051898869</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3655367890959381</v>
+        <v>0.3613966994355138</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3495197634661797</v>
+        <v>0.3531680452758619</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4440874686801676</v>
+        <v>0.4435279992554502</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2982329522870522</v>
+        <v>0.297245624060661</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3874462417072845</v>
+        <v>0.3912974532699477</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3148213353807459</v>
+        <v>0.3147776240715236</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4040933724724775</v>
+        <v>0.4038756782721897</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.303542595721792</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.4640773379305981</v>
+        <v>0.464077337930598</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.2632355943658629</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2888884188953999</v>
+        <v>0.2878117499622123</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4444671139199283</v>
+        <v>0.4459027282837472</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2481194828648475</v>
+        <v>0.2483757961060622</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.397616091021017</v>
+        <v>0.3969946208803338</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2725492784698017</v>
+        <v>0.2713287601490773</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4265753071111628</v>
+        <v>0.4260608159330918</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3206149164345699</v>
+        <v>0.3195302868229622</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4822589675119416</v>
+        <v>0.483508347757528</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2785441665670674</v>
+        <v>0.2794565142534241</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4265860052070894</v>
+        <v>0.4270878362871848</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2940936043540789</v>
+        <v>0.2939475263534146</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4504103609900552</v>
+        <v>0.4491188203396612</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>176258</v>
+        <v>177897</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>257447</v>
+        <v>256817</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>154949</v>
+        <v>155045</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>268879</v>
+        <v>270173</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>343283</v>
+        <v>344867</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>543282</v>
+        <v>538835</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>225296</v>
+        <v>226378</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>313044</v>
+        <v>313698</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>197307</v>
+        <v>198842</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>313647</v>
+        <v>316588</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>410591</v>
+        <v>411869</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>615618</v>
+        <v>610841</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>273244</v>
+        <v>269382</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>475762</v>
+        <v>475947</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>246402</v>
+        <v>247031</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>416685</v>
+        <v>414996</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>535039</v>
+        <v>530935</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>907674</v>
+        <v>906508</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>328979</v>
+        <v>329009</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>551984</v>
+        <v>551097</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>305609</v>
+        <v>305501</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>471440</v>
+        <v>473990</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>619188</v>
+        <v>616674</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1001991</v>
+        <v>1005415</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>202985</v>
+        <v>203999</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>399126</v>
+        <v>394474</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>175078</v>
+        <v>173571</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>371380</v>
+        <v>368247</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>390593</v>
+        <v>392485</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>783791</v>
+        <v>784792</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>256506</v>
+        <v>254983</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>462446</v>
+        <v>460983</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>226470</v>
+        <v>222434</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>424874</v>
+        <v>422574</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>461119</v>
+        <v>461136</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>867872</v>
+        <v>871094</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>269887</v>
+        <v>272235</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>373528</v>
+        <v>370750</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>251380</v>
+        <v>247734</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>372257</v>
+        <v>373877</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>536861</v>
+        <v>538316</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>768624</v>
+        <v>759919</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>326267</v>
+        <v>329673</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>438743</v>
+        <v>438191</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>310003</v>
+        <v>308977</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>431910</v>
+        <v>436204</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>621124</v>
+        <v>621037</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>849698</v>
+        <v>849241</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>976655</v>
+        <v>973015</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1565321</v>
+        <v>1570377</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>875391</v>
+        <v>876296</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1476236</v>
+        <v>1473929</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1882999</v>
+        <v>1874566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3086064</v>
+        <v>3082342</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1083913</v>
+        <v>1080247</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1698416</v>
+        <v>1702816</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>982733</v>
+        <v>985952</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1583794</v>
+        <v>1585657</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>2031845</v>
+        <v>2030836</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>3258499</v>
+        <v>3249155</v>
       </c>
     </row>
     <row r="24">
